--- a/arg/args_33.xlsx
+++ b/arg/args_33.xlsx
@@ -381,176 +381,110 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.06704668128708496</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.932953318712915</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.6060197386942496</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.3939802613057505</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-0.1972366118040319</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.2947062117907368</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-0.1169120669570246</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-0.3228264585582247</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.1040876964459738</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>-0.08776633219751281</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.046292604827171</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.009275854896275642</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-0.007056647301655655</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.0246423972693166</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.01393282486785744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.01341296644605119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.005262264318245642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.001535385060681961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.0002602731870228163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.009889710108986195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.001522879646054636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.001308911353664241</v>
       </c>
     </row>
   </sheetData>
